--- a/database.xlsx
+++ b/database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona_000\Desktop\CS2102\CS2102-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aylward\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5745" windowHeight="5280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tag" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="311">
   <si>
     <t>word</t>
   </si>
@@ -43,9 +43,6 @@
     <t>romance</t>
   </si>
   <si>
-    <t>living</t>
-  </si>
-  <si>
     <t>outdoors</t>
   </si>
   <si>
@@ -241,12 +238,6 @@
     <t>end_date DATE DEFAULT '30-12-9999' NOT NULL,</t>
   </si>
   <si>
-    <t>proposal_date DATE NOT NULL,</t>
-  </si>
-  <si>
-    <t>description VARCHAR(512),</t>
-  </si>
-  <si>
     <t>raised NUMBER(*,2) DEFAULT 0 NOT NULL,</t>
   </si>
   <si>
@@ -365,6 +356,609 @@
   </si>
   <si>
     <t>999999</t>
+  </si>
+  <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
+    <t>matong@hotmail.com</t>
+  </si>
+  <si>
+    <t>MaTong</t>
+  </si>
+  <si>
+    <t>AJC</t>
+  </si>
+  <si>
+    <t>dabian</t>
+  </si>
+  <si>
+    <t>GraviBowl</t>
+  </si>
+  <si>
+    <t>20-Jul-2015</t>
+  </si>
+  <si>
+    <t>20-Aug-2015</t>
+  </si>
+  <si>
+    <t>12-Jul-2015</t>
+  </si>
+  <si>
+    <t>Behold the toilet bowl that can handle your shits so well that the water will not splash up your butt when u drop DA BOMB with the all new gravity toilet bowl. Support my invention NAW!!</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>15565</t>
+  </si>
+  <si>
+    <t>672539</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>farenheit451@hotmail.com</t>
+  </si>
+  <si>
+    <t>PohZhua</t>
+  </si>
+  <si>
+    <t>takchek</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>273986</t>
+  </si>
+  <si>
+    <t>Burn All BOOKS</t>
+  </si>
+  <si>
+    <t>fireman</t>
+  </si>
+  <si>
+    <t>15-Jan-1995</t>
+  </si>
+  <si>
+    <t>15-Dec-1995</t>
+  </si>
+  <si>
+    <t>1-Jan-1995</t>
+  </si>
+  <si>
+    <t>We dunnid books to bee god in engrish! Shave the three! Books r BAD! Burn them BOOKS!</t>
+  </si>
+  <si>
+    <t>meiguihua@gmail.com</t>
+  </si>
+  <si>
+    <t>RuHua</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>rafflesia</t>
+  </si>
+  <si>
+    <t>361639</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>meiguihua@hotmail.com</t>
+  </si>
+  <si>
+    <t>14-Feb-2005</t>
+  </si>
+  <si>
+    <t>21-Feb-2005</t>
+  </si>
+  <si>
+    <t>10-Feb-2015</t>
+  </si>
+  <si>
+    <t>Roro Flower</t>
+  </si>
+  <si>
+    <t>Support my invention! The flower that can tell your partners current emotion towards U! From a happy rose to a rafflesia of disgust and even mimosa of shyness and many more! When the flower dies…</t>
+  </si>
+  <si>
+    <t>xiexin2011@gmail.com</t>
+  </si>
+  <si>
+    <t>huangran1991@yahoo.com</t>
+  </si>
+  <si>
+    <t>gohengchye1992@msn.com</t>
+  </si>
+  <si>
+    <t>gohhuiying1989@gmail.com</t>
+  </si>
+  <si>
+    <t>pangzhan@msn.com</t>
+  </si>
+  <si>
+    <t>pabuaytoh@hotmail.com</t>
+  </si>
+  <si>
+    <t>gannina@hotmail.com</t>
+  </si>
+  <si>
+    <t>wamaila@yahoo.com</t>
+  </si>
+  <si>
+    <t>XieXin</t>
+  </si>
+  <si>
+    <t>HuangRan</t>
+  </si>
+  <si>
+    <t>HengChye</t>
+  </si>
+  <si>
+    <t>HuiYing</t>
+  </si>
+  <si>
+    <t>BuayToh</t>
+  </si>
+  <si>
+    <t>PangZhan</t>
+  </si>
+  <si>
+    <t>NiNa</t>
+  </si>
+  <si>
+    <t>MaiLa</t>
+  </si>
+  <si>
+    <t>HCI</t>
+  </si>
+  <si>
+    <t>MBS</t>
+  </si>
+  <si>
+    <t>Faiefield</t>
+  </si>
+  <si>
+    <t>BPPS</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Woodlands</t>
+  </si>
+  <si>
+    <t>Queenstown</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>luckyveg</t>
+  </si>
+  <si>
+    <t>willwin</t>
+  </si>
+  <si>
+    <t>gibchance</t>
+  </si>
+  <si>
+    <t>wunfall</t>
+  </si>
+  <si>
+    <t>whutthe</t>
+  </si>
+  <si>
+    <t>mailawamai</t>
+  </si>
+  <si>
+    <t>zuoboh@msn.com</t>
+  </si>
+  <si>
+    <t>RelacLam</t>
+  </si>
+  <si>
+    <t>whatever</t>
+  </si>
+  <si>
+    <t>fanghan2011@hotmail.com</t>
+  </si>
+  <si>
+    <t>FangHan</t>
+  </si>
+  <si>
+    <t>Gaylang</t>
+  </si>
+  <si>
+    <t>happybunny</t>
+  </si>
+  <si>
+    <t>tayweiguo1989@hotmail.com</t>
+  </si>
+  <si>
+    <t>TayWeiGuo</t>
+  </si>
+  <si>
+    <t>Tampines</t>
+  </si>
+  <si>
+    <t>forcountry</t>
+  </si>
+  <si>
+    <t>dinggekping@yahoo.com</t>
+  </si>
+  <si>
+    <t>GekPing</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>Fabiosa@gmail.com</t>
+  </si>
+  <si>
+    <t>Fabiosa</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>fabulos</t>
+  </si>
+  <si>
+    <t>antonio@msn.com</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>bigboss11</t>
+  </si>
+  <si>
+    <t>zeus@hotmail.com</t>
+  </si>
+  <si>
+    <t>Zeus de Caprio</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>godwrath</t>
+  </si>
+  <si>
+    <t>abbadon@dota.com</t>
+  </si>
+  <si>
+    <t>Abba</t>
+  </si>
+  <si>
+    <t>Dire</t>
+  </si>
+  <si>
+    <t>borrowtyme</t>
+  </si>
+  <si>
+    <t>Axe@dota.com</t>
+  </si>
+  <si>
+    <t>MogulKahn</t>
+  </si>
+  <si>
+    <t>Radiant</t>
+  </si>
+  <si>
+    <t>touchthis</t>
+  </si>
+  <si>
+    <t>Puck@dota.com</t>
+  </si>
+  <si>
+    <t>Puck</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>seeuseeme</t>
+  </si>
+  <si>
+    <t>neelamdeo@hotmail.com</t>
+  </si>
+  <si>
+    <t>LamDeo</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>lambo</t>
+  </si>
+  <si>
+    <t>reborn@hitman.com</t>
+  </si>
+  <si>
+    <t>katey</t>
+  </si>
+  <si>
+    <t>Imperia</t>
+  </si>
+  <si>
+    <t>bangbangbangz</t>
+  </si>
+  <si>
+    <t>matcha@hotmail.com</t>
+  </si>
+  <si>
+    <t>MatChia</t>
+  </si>
+  <si>
+    <t>gongcha</t>
+  </si>
+  <si>
+    <t>fiftysugar</t>
+  </si>
+  <si>
+    <t>Fate creator</t>
+  </si>
+  <si>
+    <t>Bomoh</t>
+  </si>
+  <si>
+    <t>23-Sep-2015</t>
+  </si>
+  <si>
+    <t>1-dec-2015</t>
+  </si>
+  <si>
+    <t>20-sep-2015</t>
+  </si>
+  <si>
+    <t>Fund me to improve the haze condition. I need to put more ice on a cooking wok!</t>
+  </si>
+  <si>
+    <t>bomoh@hotmail.com</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>123987</t>
+  </si>
+  <si>
+    <t>malaysia</t>
+  </si>
+  <si>
+    <t>scamaz</t>
+  </si>
+  <si>
+    <t>liuzhanpeng2011@msn.com</t>
+  </si>
+  <si>
+    <t>ZhanPeng</t>
+  </si>
+  <si>
+    <t>lukut</t>
+  </si>
+  <si>
+    <t>praise123</t>
+  </si>
+  <si>
+    <t>wenxin@hotmail.com</t>
+  </si>
+  <si>
+    <t>WenXin</t>
+  </si>
+  <si>
+    <t>ipoh</t>
+  </si>
+  <si>
+    <t>wenz9912</t>
+  </si>
+  <si>
+    <t>prettycure91@yahoo.com</t>
+  </si>
+  <si>
+    <t>Cyndy</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>supertwist</t>
+  </si>
+  <si>
+    <t>liushaozhun@gmail.com</t>
+  </si>
+  <si>
+    <t>ShaoZhun</t>
+  </si>
+  <si>
+    <t>taipei</t>
+  </si>
+  <si>
+    <t>zhoucong1990@yahoo.com</t>
+  </si>
+  <si>
+    <t>ZhouCong</t>
+  </si>
+  <si>
+    <t>shanghai</t>
+  </si>
+  <si>
+    <t>woshimaskman</t>
+  </si>
+  <si>
+    <t>Love of sree</t>
+  </si>
+  <si>
+    <t>ZhouFeng</t>
+  </si>
+  <si>
+    <t>10-Aug-2014</t>
+  </si>
+  <si>
+    <t>10-Nov-2014</t>
+  </si>
+  <si>
+    <t>1-Aug-2014</t>
+  </si>
+  <si>
+    <t>Love of sree. Seeking the truth of sree lines, sreenity and many more! Join me!!</t>
+  </si>
+  <si>
+    <t>zhoufeng@mathgod.com</t>
+  </si>
+  <si>
+    <t>33333</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>333333</t>
+  </si>
+  <si>
+    <t>sree lanka</t>
+  </si>
+  <si>
+    <t>nanawong@hotmail.com</t>
+  </si>
+  <si>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>nadu</t>
+  </si>
+  <si>
+    <t>nenenini</t>
+  </si>
+  <si>
+    <t>tanweisheng@gmail.com</t>
+  </si>
+  <si>
+    <t>WeiSheng</t>
+  </si>
+  <si>
+    <t>ang moh kio</t>
+  </si>
+  <si>
+    <t>warriorz94</t>
+  </si>
+  <si>
+    <t>injoker@dota.com</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>radiant</t>
+  </si>
+  <si>
+    <t>QWER</t>
+  </si>
+  <si>
+    <t>kittypurr@gmail.com</t>
+  </si>
+  <si>
+    <t>KittyPong</t>
+  </si>
+  <si>
+    <t>SunshineLane</t>
+  </si>
+  <si>
+    <t>meowmi</t>
+  </si>
+  <si>
+    <t>Cat lover</t>
+  </si>
+  <si>
+    <t>1-Jan-2011</t>
+  </si>
+  <si>
+    <t>1-Jul-2011</t>
+  </si>
+  <si>
+    <t>25-Dec-2010</t>
+  </si>
+  <si>
+    <t>I love cats. I love every kind of cat. I jz wanna hug all of the cats, cant hug every cat~~</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>173645</t>
+  </si>
+  <si>
+    <t>qigai@gmail.com</t>
+  </si>
+  <si>
+    <t>AhBeg</t>
+  </si>
+  <si>
+    <t>suzhou</t>
+  </si>
+  <si>
+    <t>luiluilui</t>
+  </si>
+  <si>
+    <t>Serious funding</t>
+  </si>
+  <si>
+    <t>28-Dec-1997</t>
+  </si>
+  <si>
+    <t>1-Jan-1999</t>
+  </si>
+  <si>
+    <t>1-Jan-2000</t>
+  </si>
+  <si>
+    <t>begging goes online. Every cent counts thx plox</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>157457</t>
   </si>
 </sst>
 </file>
@@ -704,88 +1298,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
       <c r="J14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -795,52 +1397,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:W30"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -849,259 +1452,1652 @@
         <v>123456</v>
       </c>
       <c r="G2">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12342359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>123456</v>
+        <v>155165</v>
       </c>
       <c r="G3">
         <v>77777777</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>123456</v>
+        <v>234785</v>
       </c>
       <c r="G4">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>23448746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>138755</v>
+      </c>
+      <c r="G5">
+        <v>24756798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>123487</v>
+      </c>
+      <c r="G6">
+        <v>12482498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>60</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>123456</v>
-      </c>
-      <c r="G5">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>123456</v>
-      </c>
-      <c r="G6">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>123456</v>
+        <v>589462</v>
       </c>
       <c r="G7">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>43535434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>123456</v>
+        <v>347980</v>
       </c>
       <c r="G8">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>62564564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>123456</v>
+        <v>866573</v>
       </c>
       <c r="G9">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>25365424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>423543</v>
+      </c>
+      <c r="G10">
+        <v>45253653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>63</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>123456</v>
-      </c>
-      <c r="G10">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>123456</v>
+        <v>599584</v>
       </c>
       <c r="G11">
-        <v>77777777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34536454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>455436</v>
+      </c>
+      <c r="G12">
+        <v>35324678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>353454</v>
+      </c>
+      <c r="G13">
+        <v>21415633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>345778</v>
+      </c>
+      <c r="G14">
+        <v>13456544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>235416</v>
+      </c>
+      <c r="G15">
+        <v>80479483</v>
+      </c>
       <c r="R15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>325678</v>
+      </c>
+      <c r="G16">
+        <v>23429850</v>
+      </c>
+      <c r="R16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R16" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>236775</v>
+      </c>
+      <c r="G17">
+        <v>34347554</v>
+      </c>
+      <c r="R17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R17" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>562256</v>
+      </c>
+      <c r="G18">
+        <v>52616871</v>
+      </c>
+      <c r="R18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R18" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>352367</v>
+      </c>
+      <c r="G19">
+        <v>12363743</v>
+      </c>
+      <c r="R19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R19" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>257845</v>
+      </c>
+      <c r="G20">
+        <v>13413098</v>
+      </c>
+      <c r="R20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R20" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>245677</v>
+      </c>
+      <c r="G21">
+        <v>34235532</v>
+      </c>
+      <c r="R21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R21" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>252456</v>
+      </c>
+      <c r="G22">
+        <v>34247947</v>
+      </c>
+      <c r="R22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R22" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>268676</v>
+      </c>
+      <c r="G23">
+        <v>34274985</v>
+      </c>
+      <c r="R23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R23" t="s">
-        <v>20</v>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>875676</v>
+      </c>
+      <c r="G24">
+        <v>34725898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>473567</v>
+      </c>
+      <c r="G25">
+        <v>52874234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>214356</v>
+      </c>
+      <c r="G26">
+        <v>97498237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>143878</v>
+      </c>
+      <c r="G27">
+        <v>92384724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>367894</v>
+      </c>
+      <c r="G28">
+        <v>92347355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>655866</v>
+      </c>
+      <c r="G29">
+        <v>32983475</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>289364</v>
+      </c>
+      <c r="G30">
+        <v>90836655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>234590</v>
+      </c>
+      <c r="G31">
+        <v>98677453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>234983</v>
+      </c>
+      <c r="G32">
+        <v>98354633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>187384</v>
+      </c>
+      <c r="G33">
+        <v>94558689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>437457</v>
+      </c>
+      <c r="G34">
+        <v>96202815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>233490</v>
+      </c>
+      <c r="G35">
+        <v>90257884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>123987</v>
+      </c>
+      <c r="G36">
+        <v>98746553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>324092</v>
+      </c>
+      <c r="G37">
+        <v>81736452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>345463</v>
+      </c>
+      <c r="G38">
+        <v>17374837</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>543636</v>
+      </c>
+      <c r="G39">
+        <v>96364735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40">
+        <v>96354728</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>634353</v>
+      </c>
+      <c r="G40">
+        <v>96354728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>354355</v>
+      </c>
+      <c r="G41">
+        <v>34758355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42">
+        <v>33333</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>333333</v>
+      </c>
+      <c r="G42">
+        <v>33333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>345336</v>
+      </c>
+      <c r="G43">
+        <v>93847325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>647546</v>
+      </c>
+      <c r="G44">
+        <v>23423423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>134523</v>
+      </c>
+      <c r="G45">
+        <v>98272633</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>173645</v>
+      </c>
+      <c r="G46">
+        <v>92162233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>157457</v>
+      </c>
+      <c r="G47">
+        <v>98373732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>165774</v>
+      </c>
+      <c r="G48">
+        <v>96373732</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>365778</v>
+      </c>
+      <c r="G49">
+        <v>92929234</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>786868</v>
+      </c>
+      <c r="G50">
+        <v>92383743</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>351356</v>
+      </c>
+      <c r="G51">
+        <v>92847237</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>345663</v>
+      </c>
+      <c r="G52">
+        <v>92874723</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>136345</v>
+      </c>
+      <c r="G53">
+        <v>94904847</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>145678</v>
+      </c>
+      <c r="G54">
+        <v>94884744</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>123167</v>
+      </c>
+      <c r="G55">
+        <v>92357743</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>347785</v>
+      </c>
+      <c r="G56">
+        <v>92348234</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>345757</v>
+      </c>
+      <c r="G57">
+        <v>94048473</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>346322</v>
+      </c>
+      <c r="G58">
+        <v>92827833</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>567754</v>
+      </c>
+      <c r="G59">
+        <v>92847342</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>154536</v>
+      </c>
+      <c r="G60">
+        <v>92384798</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>455366</v>
+      </c>
+      <c r="G61">
+        <v>93578323</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>345754</v>
+      </c>
+      <c r="G62">
+        <v>34234234</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>435665</v>
+      </c>
+      <c r="G63">
+        <v>23498423</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>453246</v>
+      </c>
+      <c r="G64">
+        <v>93092343</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>453453</v>
+      </c>
+      <c r="G65">
+        <v>23934928</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>453554</v>
+      </c>
+      <c r="G66">
+        <v>27449473</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>928364</v>
+      </c>
+      <c r="G67">
+        <v>93837464</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>348745</v>
+      </c>
+      <c r="G68">
+        <v>90383722</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>219874</v>
+      </c>
+      <c r="G69">
+        <v>92928473</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>198273</v>
+      </c>
+      <c r="G70">
+        <v>19393984</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>198364</v>
+      </c>
+      <c r="G71">
+        <v>13840393</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>176374</v>
+      </c>
+      <c r="G72">
+        <v>92827273</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>118642</v>
+      </c>
+      <c r="G73">
+        <v>92847439</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>826453</v>
+      </c>
+      <c r="G74">
+        <v>92847444</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>829264</v>
+      </c>
+      <c r="G75">
+        <v>90922342</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>102937</v>
+      </c>
+      <c r="G76">
+        <v>39292397</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>264791</v>
+      </c>
+      <c r="G77">
+        <v>92823653</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>893862</v>
+      </c>
+      <c r="G78">
+        <v>23387583</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>193845</v>
+      </c>
+      <c r="G79">
+        <v>98662244</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>194798</v>
+      </c>
+      <c r="G80">
+        <v>98782623</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>234242</v>
+      </c>
+      <c r="G81">
+        <v>93736333</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>234266</v>
+      </c>
+      <c r="G82">
+        <v>93736353</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>113436</v>
+      </c>
+      <c r="G83">
+        <v>92652473</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>745757</v>
+      </c>
+      <c r="G84">
+        <v>98752423</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>453534</v>
+      </c>
+      <c r="G85">
+        <v>36438255</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>345356</v>
+      </c>
+      <c r="G86">
+        <v>90383642</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>345424</v>
+      </c>
+      <c r="G87">
+        <v>98873645</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>353545</v>
+      </c>
+      <c r="G88">
+        <v>97769533</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>246676</v>
+      </c>
+      <c r="G89">
+        <v>98876225</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>584584</v>
+      </c>
+      <c r="G90">
+        <v>99873463</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>256763</v>
+      </c>
+      <c r="G91">
+        <v>98210857</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>679466</v>
+      </c>
+      <c r="G92">
+        <v>98756402</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>677673</v>
+      </c>
+      <c r="G93">
+        <v>90874365</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>745634</v>
+      </c>
+      <c r="G94">
+        <v>98746134</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>747643</v>
+      </c>
+      <c r="G95">
+        <v>91267843</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>566543</v>
+      </c>
+      <c r="G96">
+        <v>98735473</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>235456</v>
+      </c>
+      <c r="G97">
+        <v>97357633</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>867632</v>
+      </c>
+      <c r="G98">
+        <v>92736463</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>776435</v>
+      </c>
+      <c r="G99">
+        <v>32765484</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>235678</v>
+      </c>
+      <c r="G100">
+        <v>98462840</v>
       </c>
     </row>
   </sheetData>
@@ -1115,91 +3111,127 @@
     <hyperlink ref="A10" r:id="rId7"/>
     <hyperlink ref="A11" r:id="rId8"/>
     <hyperlink ref="A2" r:id="rId9"/>
+    <hyperlink ref="A12" r:id="rId10"/>
+    <hyperlink ref="A13" r:id="rId11"/>
+    <hyperlink ref="A14" r:id="rId12"/>
+    <hyperlink ref="A16" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A17" r:id="rId15"/>
+    <hyperlink ref="A18" r:id="rId16"/>
+    <hyperlink ref="A19" r:id="rId17"/>
+    <hyperlink ref="A20" r:id="rId18"/>
+    <hyperlink ref="A21" r:id="rId19"/>
+    <hyperlink ref="A22" r:id="rId20"/>
+    <hyperlink ref="A23" r:id="rId21"/>
+    <hyperlink ref="A24" r:id="rId22"/>
+    <hyperlink ref="A25" r:id="rId23"/>
+    <hyperlink ref="A26" r:id="rId24"/>
+    <hyperlink ref="A27" r:id="rId25"/>
+    <hyperlink ref="A28" r:id="rId26"/>
+    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+    <hyperlink ref="A31" r:id="rId29"/>
+    <hyperlink ref="A32" r:id="rId30"/>
+    <hyperlink ref="A33" r:id="rId31"/>
+    <hyperlink ref="A34" r:id="rId32"/>
+    <hyperlink ref="A35" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A37" r:id="rId35"/>
+    <hyperlink ref="A38" r:id="rId36"/>
+    <hyperlink ref="A39" r:id="rId37"/>
+    <hyperlink ref="A40" r:id="rId38"/>
+    <hyperlink ref="A41" r:id="rId39"/>
+    <hyperlink ref="A42" r:id="rId40"/>
+    <hyperlink ref="A43" r:id="rId41"/>
+    <hyperlink ref="A44" r:id="rId42"/>
+    <hyperlink ref="A45" r:id="rId43"/>
+    <hyperlink ref="A46" r:id="rId44"/>
+    <hyperlink ref="A47" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="1" max="1" width="30.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="3"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="26.140625" style="3" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="26.1796875" style="3" customWidth="1"/>
+    <col min="6" max="10" width="9.1796875" style="3"/>
+    <col min="11" max="11" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3">
         <v>5000</v>
@@ -1217,30 +3249,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="I3" s="3">
         <v>50</v>
@@ -1255,119 +3287,366 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N6" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N12" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N7" s="3" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N14" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N17" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N9" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N11" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N12" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N15" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N16" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N17" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:14" x14ac:dyDescent="0.35">
       <c r="N18" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.35">
       <c r="N19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N20" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1375,8 +3654,15 @@
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId9"/>
+    <hyperlink ref="G10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>